--- a/data-with-charts.xlsx
+++ b/data-with-charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/real_time_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00137085-6D67-DF47-804B-ED7A8AC8C109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBB32C7-D63E-A947-AC3E-DCDA3EFA054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2400" yWindow="500" windowWidth="33600" windowHeight="19860" xr2:uid="{0DA6B4AB-4EC6-4C65-98B8-DB7914EF0FCB}"/>
   </bookViews>
